--- a/需求分析/接口文档/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21930" windowHeight="9150"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -1011,11 +1011,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1029,58 +1029,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,6 +1051,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1112,14 +1120,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,7 +1190,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,13 +1238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,7 +1250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,67 +1262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,6 +1281,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,21 +1346,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1377,20 +1362,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,16 +1438,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1456,31 +1456,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1489,16 +1489,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1507,52 +1507,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1561,32 +1561,32 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1651,9 +1651,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="9" borderId="0" xfId="22" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="36" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2055,7 +2052,7 @@
   </sheetPr>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C100" sqref="C100:D100"/>
     </sheetView>
   </sheetViews>
@@ -2691,10 +2688,10 @@
       <c r="B99" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D99" s="22"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="6" t="s">
         <v>8</v>
       </c>
@@ -2704,10 +2701,10 @@
       <c r="B100" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D100" s="22"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="6" t="s">
         <v>8</v>
       </c>
@@ -2737,7 +2734,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="A7" sqref="A7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2971,13 +2968,13 @@
   <sheetPr/>
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="15" max="15" width="50.75" customWidth="1"/>
+    <col min="15" max="15" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4805,7 +4802,7 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -5103,8 +5100,8 @@
   <sheetPr/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5605,11 +5602,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:R263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:O28"/>
+    <sheetView topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="F299" sqref="F299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8709,8 +8708,8 @@
   <sheetPr/>
   <dimension ref="A1:Q305"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230:O237"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="P271" sqref="P271:Q277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11382,7 +11381,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/需求分析/接口文档/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21765" windowHeight="8745" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="23175" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280">
   <si>
     <t>更新时间</t>
   </si>
@@ -189,31 +189,16 @@
     <t>红色代表异常接口</t>
   </si>
   <si>
-    <t>192.80.77</t>
-  </si>
-  <si>
     <t>黄色代表接口未开通</t>
   </si>
   <si>
-    <t>247.150.70</t>
-  </si>
-  <si>
     <t>绿色代表接口正常</t>
   </si>
   <si>
-    <t>155.187.89</t>
-  </si>
-  <si>
     <t>蓝色代表已开通但未验证</t>
   </si>
   <si>
-    <t>75.172.198</t>
-  </si>
-  <si>
     <t>紫色表示接口已废弃</t>
-  </si>
-  <si>
-    <t>128.100.162</t>
   </si>
   <si>
     <t>问题类型</t>
@@ -989,10 +974,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1032,6 +1017,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1039,8 +1047,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,6 +1085,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1062,9 +1108,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,75 +1133,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,7 +1196,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,25 +1268,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,7 +1280,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,37 +1304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,43 +1322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,6 +1352,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1381,17 +1381,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1401,6 +1397,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,41 +1439,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1477,103 +1462,103 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1582,28 +1567,28 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2073,8 +2058,8 @@
   </sheetPr>
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2162,7 +2147,9 @@
       <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="21"/>
@@ -2175,7 +2162,9 @@
       <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="21"/>
@@ -2768,15 +2757,15 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="A1" s="18" t="s">
         <v>54</v>
       </c>
@@ -2786,12 +2775,6 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
-      <c r="I1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="18"/>
@@ -2802,9 +2785,9 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:7">
       <c r="A4" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2812,12 +2795,6 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="19"/>
@@ -2828,9 +2805,9 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2838,12 +2815,6 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6"/>
@@ -2854,9 +2825,9 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:7">
       <c r="A10" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -2864,12 +2835,6 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="20"/>
@@ -2880,9 +2845,9 @@
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2890,12 +2855,6 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13">
-        <v>4</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10"/>
@@ -2946,79 +2905,79 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3046,7 +3005,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3082,20 +3041,20 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3109,29 +3068,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -3143,20 +3102,20 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -3168,16 +3127,16 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -3196,11 +3155,11 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -3217,11 +3176,11 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -3238,11 +3197,11 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -3259,11 +3218,11 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -3280,11 +3239,11 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -3301,11 +3260,11 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -3413,20 +3372,20 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -3440,29 +3399,29 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -3474,11 +3433,11 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -3526,20 +3485,20 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -3553,29 +3512,29 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
@@ -3587,16 +3546,16 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
@@ -3610,20 +3569,20 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
@@ -3640,11 +3599,11 @@
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
@@ -3661,11 +3620,11 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L57" s="8"/>
       <c r="M57" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
@@ -3682,18 +3641,18 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -3729,20 +3688,20 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -3756,29 +3715,29 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L75" s="8"/>
       <c r="M75" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
@@ -3790,16 +3749,16 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -3818,11 +3777,11 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L77" s="8"/>
       <c r="M77" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
@@ -3839,11 +3798,11 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L78" s="8"/>
       <c r="M78" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
@@ -3860,11 +3819,11 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L79" s="8"/>
       <c r="M79" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
@@ -3881,11 +3840,11 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
@@ -3902,11 +3861,11 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
@@ -3923,11 +3882,11 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
@@ -3944,11 +3903,11 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L83" s="8"/>
       <c r="M83" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
@@ -3965,18 +3924,18 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -4012,20 +3971,20 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
@@ -4039,29 +3998,29 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L109" s="8"/>
       <c r="M109" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N109" s="13"/>
       <c r="O109" s="13"/>
@@ -4073,20 +4032,20 @@
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
@@ -4098,20 +4057,20 @@
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L111" s="13"/>
       <c r="M111" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N111" s="13"/>
       <c r="O111" s="13"/>
@@ -4123,11 +4082,11 @@
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
@@ -4192,7 +4151,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -4228,20 +4187,20 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G137" s="7"/>
       <c r="H137" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
@@ -4255,29 +4214,29 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L138" s="8"/>
       <c r="M138" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
@@ -4289,20 +4248,20 @@
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L139" s="8"/>
       <c r="M139" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
@@ -4314,20 +4273,20 @@
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L140" s="13"/>
       <c r="M140" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N140" s="13"/>
       <c r="O140" s="13"/>
@@ -4339,11 +4298,11 @@
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
@@ -4423,7 +4382,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -4459,20 +4418,20 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G159" s="7"/>
       <c r="H159" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
@@ -4486,29 +4445,29 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L160" s="8"/>
       <c r="M160" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N160" s="13"/>
       <c r="O160" s="13"/>
@@ -4520,20 +4479,20 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L161" s="8"/>
       <c r="M161" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N161" s="8"/>
       <c r="O161" s="8"/>
@@ -4545,20 +4504,20 @@
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L162" s="13"/>
       <c r="M162" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N162" s="13"/>
       <c r="O162" s="13"/>
@@ -4570,11 +4529,11 @@
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
@@ -4880,7 +4839,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4916,20 +4875,20 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -4943,27 +4902,27 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -4975,11 +4934,11 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -4996,11 +4955,11 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -5017,11 +4976,11 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -5214,20 +5173,20 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -5241,29 +5200,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -5275,11 +5234,11 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -5327,20 +5286,20 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -5354,29 +5313,29 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L28" s="13"/>
       <c r="M28" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -5388,16 +5347,16 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
@@ -5411,20 +5370,20 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -5441,11 +5400,11 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -5488,20 +5447,20 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -5515,29 +5474,29 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
       <c r="K51" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L51" s="13"/>
       <c r="M51" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
@@ -5549,11 +5508,11 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -5570,11 +5529,11 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -5591,11 +5550,11 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -5685,7 +5644,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5721,20 +5680,20 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -5748,29 +5707,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -5782,20 +5741,20 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -5807,16 +5766,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -5830,20 +5789,20 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -5860,11 +5819,11 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -5881,11 +5840,11 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -5902,11 +5861,11 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -5923,11 +5882,11 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -5970,20 +5929,20 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -5997,29 +5956,29 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -6031,20 +5990,20 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -6056,11 +6015,11 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -6077,11 +6036,11 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -6098,11 +6057,11 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -6167,20 +6126,20 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -6194,29 +6153,29 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L53" s="13"/>
       <c r="M53" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
@@ -6228,20 +6187,20 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
@@ -6253,16 +6212,16 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -6281,11 +6240,11 @@
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
@@ -6302,11 +6261,11 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L57" s="8"/>
       <c r="M57" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
@@ -6323,11 +6282,11 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -6344,11 +6303,11 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
@@ -6365,11 +6324,11 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L60" s="8"/>
       <c r="M60" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
@@ -6386,11 +6345,11 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
@@ -6407,11 +6366,11 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
@@ -6428,11 +6387,11 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
@@ -6449,11 +6408,11 @@
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
@@ -6470,11 +6429,11 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
@@ -6517,20 +6476,20 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -6544,29 +6503,29 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
       <c r="K77" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L77" s="13"/>
       <c r="M77" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
@@ -6578,20 +6537,20 @@
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L78" s="8"/>
       <c r="M78" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
@@ -6603,16 +6562,16 @@
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
@@ -6626,20 +6585,20 @@
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
@@ -6656,11 +6615,11 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L81" s="8"/>
       <c r="M81" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
@@ -6677,11 +6636,11 @@
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
@@ -6698,11 +6657,11 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L83" s="8"/>
       <c r="M83" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
@@ -6719,11 +6678,11 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
@@ -6740,11 +6699,11 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
@@ -6761,11 +6720,11 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
@@ -6782,11 +6741,11 @@
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
@@ -6803,11 +6762,11 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L88" s="8"/>
       <c r="M88" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
@@ -6824,18 +6783,18 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L89" s="8"/>
       <c r="M89" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -6871,20 +6830,20 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
@@ -6898,29 +6857,29 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L109" s="13"/>
       <c r="M109" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N109" s="13"/>
       <c r="O109" s="13"/>
@@ -6932,20 +6891,20 @@
       <c r="D110" s="8"/>
       <c r="E110" s="9"/>
       <c r="F110" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
@@ -6957,11 +6916,11 @@
       <c r="D111" s="8"/>
       <c r="E111" s="9"/>
       <c r="F111" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
@@ -6978,11 +6937,11 @@
       <c r="D112" s="8"/>
       <c r="E112" s="9"/>
       <c r="F112" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
@@ -6999,11 +6958,11 @@
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
       <c r="F113" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
@@ -7020,11 +6979,11 @@
       <c r="D114" s="8"/>
       <c r="E114" s="9"/>
       <c r="F114" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
@@ -7072,20 +7031,20 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G139" s="7"/>
       <c r="H139" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -7099,29 +7058,29 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L140" s="13"/>
       <c r="M140" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N140" s="13"/>
       <c r="O140" s="13"/>
@@ -7133,20 +7092,20 @@
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L141" s="8"/>
       <c r="M141" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
@@ -7158,11 +7117,11 @@
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
@@ -7179,11 +7138,11 @@
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
@@ -7212,7 +7171,7 @@
       <c r="N168" s="6"/>
       <c r="O168" s="6"/>
       <c r="P168" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q168" s="10"/>
       <c r="R168" s="10"/>
@@ -7239,20 +7198,20 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G170" s="7"/>
       <c r="H170" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
@@ -7264,46 +7223,46 @@
       <c r="N170" s="7"/>
       <c r="O170" s="7"/>
       <c r="P170" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q170" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R170" s="10"/>
     </row>
     <row r="171" spans="1:18">
       <c r="A171" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G171" s="8"/>
       <c r="H171" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L171" s="13"/>
       <c r="M171" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N171" s="13"/>
       <c r="O171" s="13"/>
       <c r="P171" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q171" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R171" s="10"/>
     </row>
@@ -7314,28 +7273,28 @@
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G172" s="8"/>
       <c r="H172" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L172" s="8"/>
       <c r="M172" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N172" s="8"/>
       <c r="O172" s="8"/>
       <c r="P172" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q172" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="R172" s="10"/>
     </row>
@@ -7346,16 +7305,16 @@
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
       <c r="K173" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L173" s="13"/>
       <c r="M173" s="13"/>
@@ -7377,11 +7336,11 @@
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
       <c r="K174" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L174" s="8"/>
       <c r="M174" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N174" s="8"/>
       <c r="O174" s="8"/>
@@ -7401,11 +7360,11 @@
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
       <c r="K175" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L175" s="8"/>
       <c r="M175" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N175" s="8"/>
       <c r="O175" s="8"/>
@@ -7425,11 +7384,11 @@
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L176" s="8"/>
       <c r="M176" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N176" s="8"/>
       <c r="O176" s="8"/>
@@ -7449,11 +7408,11 @@
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
       <c r="K177" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L177" s="8"/>
       <c r="M177" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N177" s="8"/>
       <c r="O177" s="8"/>
@@ -7473,11 +7432,11 @@
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
       <c r="K178" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L178" s="8"/>
       <c r="M178" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N178" s="8"/>
       <c r="O178" s="8"/>
@@ -7497,11 +7456,11 @@
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
       <c r="K179" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L179" s="8"/>
       <c r="M179" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N179" s="8"/>
       <c r="O179" s="8"/>
@@ -7521,11 +7480,11 @@
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
       <c r="K180" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L180" s="8"/>
       <c r="M180" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N180" s="8"/>
       <c r="O180" s="8"/>
@@ -7545,11 +7504,11 @@
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
       <c r="K181" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L181" s="8"/>
       <c r="M181" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N181" s="8"/>
       <c r="O181" s="8"/>
@@ -7576,7 +7535,7 @@
       <c r="N201" s="6"/>
       <c r="O201" s="6"/>
       <c r="P201" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q201" s="10"/>
       <c r="R201" s="10"/>
@@ -7603,20 +7562,20 @@
     </row>
     <row r="203" spans="1:18">
       <c r="A203" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G203" s="7"/>
       <c r="H203" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
@@ -7628,46 +7587,46 @@
       <c r="N203" s="7"/>
       <c r="O203" s="7"/>
       <c r="P203" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q203" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R203" s="10"/>
     </row>
     <row r="204" spans="1:18">
       <c r="A204" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
       <c r="E204" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G204" s="8"/>
       <c r="H204" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
       <c r="K204" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L204" s="13"/>
       <c r="M204" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N204" s="13"/>
       <c r="O204" s="13"/>
       <c r="P204" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q204" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R204" s="10"/>
     </row>
@@ -7678,28 +7637,28 @@
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="F205" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G205" s="8"/>
       <c r="H205" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
       <c r="K205" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L205" s="8"/>
       <c r="M205" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N205" s="8"/>
       <c r="O205" s="8"/>
       <c r="P205" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q205" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="R205" s="10"/>
     </row>
@@ -7710,16 +7669,16 @@
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="F206" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G206" s="8"/>
       <c r="H206" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
       <c r="K206" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L206" s="13"/>
       <c r="M206" s="13"/>
@@ -7741,11 +7700,11 @@
       <c r="I207" s="9"/>
       <c r="J207" s="9"/>
       <c r="K207" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L207" s="8"/>
       <c r="M207" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N207" s="8"/>
       <c r="O207" s="8"/>
@@ -7765,11 +7724,11 @@
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
       <c r="K208" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N208" s="8"/>
       <c r="O208" s="8"/>
@@ -7789,11 +7748,11 @@
       <c r="I209" s="9"/>
       <c r="J209" s="9"/>
       <c r="K209" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N209" s="8"/>
       <c r="O209" s="8"/>
@@ -7813,11 +7772,11 @@
       <c r="I210" s="9"/>
       <c r="J210" s="9"/>
       <c r="K210" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L210" s="8"/>
       <c r="M210" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N210" s="8"/>
       <c r="O210" s="8"/>
@@ -7837,11 +7796,11 @@
       <c r="I211" s="9"/>
       <c r="J211" s="9"/>
       <c r="K211" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L211" s="8"/>
       <c r="M211" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N211" s="8"/>
       <c r="O211" s="8"/>
@@ -7861,11 +7820,11 @@
       <c r="I212" s="9"/>
       <c r="J212" s="9"/>
       <c r="K212" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L212" s="8"/>
       <c r="M212" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N212" s="8"/>
       <c r="O212" s="8"/>
@@ -7885,11 +7844,11 @@
       <c r="I213" s="9"/>
       <c r="J213" s="9"/>
       <c r="K213" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L213" s="8"/>
       <c r="M213" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N213" s="8"/>
       <c r="O213" s="8"/>
@@ -7909,11 +7868,11 @@
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
       <c r="K214" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L214" s="8"/>
       <c r="M214" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N214" s="8"/>
       <c r="O214" s="8"/>
@@ -7940,7 +7899,7 @@
       <c r="N232" s="6"/>
       <c r="O232" s="6"/>
       <c r="P232" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q232" s="10"/>
       <c r="R232" s="10"/>
@@ -7967,20 +7926,20 @@
     </row>
     <row r="234" spans="1:18">
       <c r="A234" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G234" s="7"/>
       <c r="H234" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
@@ -7992,46 +7951,46 @@
       <c r="N234" s="7"/>
       <c r="O234" s="7"/>
       <c r="P234" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q234" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R234" s="10"/>
     </row>
     <row r="235" spans="1:18">
       <c r="A235" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
       <c r="E235" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G235" s="8"/>
       <c r="H235" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
       <c r="K235" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L235" s="13"/>
       <c r="M235" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N235" s="13"/>
       <c r="O235" s="13"/>
       <c r="P235" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q235" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R235" s="10"/>
     </row>
@@ -8042,28 +8001,28 @@
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
       <c r="F236" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G236" s="8"/>
       <c r="H236" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
       <c r="K236" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L236" s="8"/>
       <c r="M236" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N236" s="8"/>
       <c r="O236" s="8"/>
       <c r="P236" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q236" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="R236" s="10"/>
     </row>
@@ -8074,16 +8033,16 @@
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G237" s="8"/>
       <c r="H237" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I237" s="8"/>
       <c r="J237" s="8"/>
       <c r="K237" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L237" s="13"/>
       <c r="M237" s="13"/>
@@ -8100,20 +8059,20 @@
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
       <c r="F238" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G238" s="8"/>
       <c r="H238" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I238" s="8"/>
       <c r="J238" s="8"/>
       <c r="K238" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L238" s="8"/>
       <c r="M238" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N238" s="8"/>
       <c r="O238" s="8"/>
@@ -8133,11 +8092,11 @@
       <c r="I239" s="9"/>
       <c r="J239" s="9"/>
       <c r="K239" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L239" s="8"/>
       <c r="M239" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N239" s="8"/>
       <c r="O239" s="8"/>
@@ -8157,11 +8116,11 @@
       <c r="I240" s="9"/>
       <c r="J240" s="9"/>
       <c r="K240" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L240" s="8"/>
       <c r="M240" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N240" s="8"/>
       <c r="O240" s="8"/>
@@ -8181,11 +8140,11 @@
       <c r="I241" s="9"/>
       <c r="J241" s="9"/>
       <c r="K241" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L241" s="8"/>
       <c r="M241" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N241" s="8"/>
       <c r="O241" s="8"/>
@@ -8205,11 +8164,11 @@
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
       <c r="K242" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L242" s="8"/>
       <c r="M242" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N242" s="8"/>
       <c r="O242" s="8"/>
@@ -8229,11 +8188,11 @@
       <c r="I243" s="9"/>
       <c r="J243" s="9"/>
       <c r="K243" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L243" s="8"/>
       <c r="M243" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N243" s="8"/>
       <c r="O243" s="8"/>
@@ -8253,11 +8212,11 @@
       <c r="I244" s="9"/>
       <c r="J244" s="9"/>
       <c r="K244" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L244" s="8"/>
       <c r="M244" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N244" s="8"/>
       <c r="O244" s="8"/>
@@ -8277,11 +8236,11 @@
       <c r="I245" s="9"/>
       <c r="J245" s="9"/>
       <c r="K245" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L245" s="8"/>
       <c r="M245" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N245" s="8"/>
       <c r="O245" s="8"/>
@@ -8327,20 +8286,20 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G259" s="7"/>
       <c r="H259" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
@@ -8354,29 +8313,29 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
       <c r="E260" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G260" s="8"/>
       <c r="H260" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I260" s="8"/>
       <c r="J260" s="8"/>
       <c r="K260" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L260" s="8"/>
       <c r="M260" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N260" s="8"/>
       <c r="O260" s="8"/>
@@ -8388,20 +8347,20 @@
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
       <c r="F261" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G261" s="8"/>
       <c r="H261" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I261" s="8"/>
       <c r="J261" s="8"/>
       <c r="K261" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L261" s="8"/>
       <c r="M261" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N261" s="8"/>
       <c r="O261" s="8"/>
@@ -8413,11 +8372,11 @@
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
       <c r="F262" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G262" s="8"/>
       <c r="H262" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I262" s="8"/>
       <c r="J262" s="8"/>
@@ -8434,11 +8393,11 @@
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
       <c r="F263" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G263" s="8"/>
       <c r="H263" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I263" s="8"/>
       <c r="J263" s="8"/>
@@ -8824,20 +8783,20 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -8851,29 +8810,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -8885,20 +8844,20 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -8910,11 +8869,11 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -8931,11 +8890,11 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -8983,20 +8942,20 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -9010,29 +8969,29 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -9075,20 +9034,20 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -9102,29 +9061,29 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
@@ -9136,20 +9095,20 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
@@ -9161,20 +9120,20 @@
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
@@ -9186,20 +9145,20 @@
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L57" s="8"/>
       <c r="M57" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
@@ -9211,20 +9170,20 @@
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -9241,11 +9200,11 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
@@ -9272,7 +9231,7 @@
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
       <c r="P77" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q77" s="10"/>
     </row>
@@ -9297,20 +9256,20 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -9322,19 +9281,19 @@
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
       <c r="P79" s="11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q79" s="11"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -9342,11 +9301,11 @@
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
@@ -9365,11 +9324,11 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L81" s="8"/>
       <c r="M81" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
@@ -9388,11 +9347,11 @@
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
@@ -9411,11 +9370,11 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L83" s="8"/>
       <c r="M83" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
@@ -9434,11 +9393,11 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
@@ -9457,11 +9416,11 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
@@ -9506,20 +9465,20 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -9533,29 +9492,29 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L105" s="8"/>
       <c r="M105" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
@@ -9567,20 +9526,20 @@
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L106" s="8"/>
       <c r="M106" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
@@ -9592,20 +9551,20 @@
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
@@ -9617,20 +9576,20 @@
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L108" s="8"/>
       <c r="M108" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
@@ -9642,20 +9601,20 @@
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L109" s="8"/>
       <c r="M109" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
@@ -9672,11 +9631,11 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
@@ -9719,20 +9678,20 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G129" s="7"/>
       <c r="H129" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
@@ -9746,13 +9705,13 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
@@ -9760,11 +9719,11 @@
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L130" s="8"/>
       <c r="M130" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
@@ -9781,11 +9740,11 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L131" s="8"/>
       <c r="M131" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
@@ -9802,11 +9761,11 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L132" s="8"/>
       <c r="M132" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
@@ -9823,11 +9782,11 @@
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L133" s="8"/>
       <c r="M133" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
@@ -9844,11 +9803,11 @@
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L134" s="8"/>
       <c r="M134" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
@@ -9865,11 +9824,11 @@
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L135" s="8"/>
       <c r="M135" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
@@ -9912,20 +9871,20 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G152" s="7"/>
       <c r="H152" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -9939,29 +9898,29 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
@@ -9973,20 +9932,20 @@
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G154" s="8"/>
       <c r="H154" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L154" s="8"/>
       <c r="M154" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
@@ -9998,20 +9957,20 @@
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L155" s="8"/>
       <c r="M155" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N155" s="8"/>
       <c r="O155" s="8"/>
@@ -10023,20 +9982,20 @@
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L156" s="8"/>
       <c r="M156" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
@@ -10053,11 +10012,11 @@
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
       <c r="K157" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L157" s="8"/>
       <c r="M157" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
@@ -10074,11 +10033,11 @@
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
       <c r="K158" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L158" s="8"/>
       <c r="M158" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
@@ -10121,20 +10080,20 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G179" s="7"/>
       <c r="H179" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -10148,13 +10107,13 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
@@ -10162,11 +10121,11 @@
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
       <c r="K180" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L180" s="8"/>
       <c r="M180" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N180" s="8"/>
       <c r="O180" s="8"/>
@@ -10183,11 +10142,11 @@
       <c r="I181" s="8"/>
       <c r="J181" s="8"/>
       <c r="K181" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L181" s="8"/>
       <c r="M181" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N181" s="8"/>
       <c r="O181" s="8"/>
@@ -10204,11 +10163,11 @@
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L182" s="8"/>
       <c r="M182" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N182" s="8"/>
       <c r="O182" s="8"/>
@@ -10225,11 +10184,11 @@
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
       <c r="K183" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N183" s="8"/>
       <c r="O183" s="8"/>
@@ -10246,11 +10205,11 @@
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
       <c r="K184" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L184" s="8"/>
       <c r="M184" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N184" s="8"/>
       <c r="O184" s="8"/>
@@ -10293,20 +10252,20 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G207" s="7"/>
       <c r="H207" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
@@ -10320,29 +10279,29 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
       <c r="E208" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G208" s="8"/>
       <c r="H208" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
       <c r="K208" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N208" s="8"/>
       <c r="O208" s="8"/>
@@ -10354,20 +10313,20 @@
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
       <c r="F209" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G209" s="8"/>
       <c r="H209" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
       <c r="K209" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N209" s="8"/>
       <c r="O209" s="8"/>
@@ -10379,20 +10338,20 @@
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
       <c r="F210" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G210" s="8"/>
       <c r="H210" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
       <c r="K210" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L210" s="8"/>
       <c r="M210" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N210" s="8"/>
       <c r="O210" s="8"/>
@@ -10404,20 +10363,20 @@
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
       <c r="F211" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G211" s="8"/>
       <c r="H211" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I211" s="8"/>
       <c r="J211" s="8"/>
       <c r="K211" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L211" s="8"/>
       <c r="M211" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N211" s="8"/>
       <c r="O211" s="8"/>
@@ -10434,11 +10393,11 @@
       <c r="I212" s="9"/>
       <c r="J212" s="9"/>
       <c r="K212" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L212" s="8"/>
       <c r="M212" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N212" s="8"/>
       <c r="O212" s="8"/>
@@ -10455,11 +10414,11 @@
       <c r="I213" s="9"/>
       <c r="J213" s="9"/>
       <c r="K213" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L213" s="8"/>
       <c r="M213" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N213" s="8"/>
       <c r="O213" s="8"/>
@@ -10502,20 +10461,20 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G232" s="7"/>
       <c r="H232" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
@@ -10529,13 +10488,13 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
       <c r="E233" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F233" s="8"/>
       <c r="G233" s="8"/>
@@ -10543,11 +10502,11 @@
       <c r="I233" s="8"/>
       <c r="J233" s="8"/>
       <c r="K233" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L233" s="8"/>
       <c r="M233" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N233" s="8"/>
       <c r="O233" s="8"/>
@@ -10564,11 +10523,11 @@
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
       <c r="K234" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L234" s="8"/>
       <c r="M234" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N234" s="8"/>
       <c r="O234" s="8"/>
@@ -10585,11 +10544,11 @@
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
       <c r="K235" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L235" s="8"/>
       <c r="M235" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N235" s="8"/>
       <c r="O235" s="8"/>
@@ -10606,11 +10565,11 @@
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
       <c r="K236" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L236" s="8"/>
       <c r="M236" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N236" s="8"/>
       <c r="O236" s="8"/>
@@ -10627,11 +10586,11 @@
       <c r="I237" s="9"/>
       <c r="J237" s="9"/>
       <c r="K237" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L237" s="8"/>
       <c r="M237" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N237" s="8"/>
       <c r="O237" s="8"/>
@@ -10655,7 +10614,7 @@
       <c r="N253" s="6"/>
       <c r="O253" s="6"/>
       <c r="P253" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q253" s="10"/>
     </row>
@@ -10680,20 +10639,20 @@
     </row>
     <row r="255" spans="1:17">
       <c r="A255" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G255" s="7"/>
       <c r="H255" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
@@ -10703,19 +10662,19 @@
       <c r="N255" s="7"/>
       <c r="O255" s="7"/>
       <c r="P255" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q255" s="11"/>
     </row>
     <row r="256" spans="1:17">
       <c r="A256" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
       <c r="D256" s="8"/>
       <c r="E256" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F256" s="8"/>
       <c r="G256" s="8"/>
@@ -10723,11 +10682,11 @@
       <c r="I256" s="8"/>
       <c r="J256" s="8"/>
       <c r="K256" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L256" s="8"/>
       <c r="M256" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N256" s="8"/>
       <c r="O256" s="8"/>
@@ -10746,11 +10705,11 @@
       <c r="I257" s="8"/>
       <c r="J257" s="8"/>
       <c r="K257" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L257" s="8"/>
       <c r="M257" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N257" s="8"/>
       <c r="O257" s="8"/>
@@ -10792,7 +10751,7 @@
       <c r="N269" s="6"/>
       <c r="O269" s="6"/>
       <c r="P269" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q269" s="10"/>
     </row>
@@ -10817,20 +10776,20 @@
     </row>
     <row r="271" spans="1:17">
       <c r="A271" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G271" s="7"/>
       <c r="H271" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
@@ -10842,19 +10801,19 @@
       <c r="N271" s="7"/>
       <c r="O271" s="7"/>
       <c r="P271" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q271" s="11"/>
     </row>
     <row r="272" spans="1:17">
       <c r="A272" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
       <c r="E272" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F272" s="8"/>
       <c r="G272" s="8"/>
@@ -10862,11 +10821,11 @@
       <c r="I272" s="8"/>
       <c r="J272" s="8"/>
       <c r="K272" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L272" s="8"/>
       <c r="M272" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N272" s="8"/>
       <c r="O272" s="8"/>
@@ -10885,11 +10844,11 @@
       <c r="I273" s="8"/>
       <c r="J273" s="8"/>
       <c r="K273" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L273" s="8"/>
       <c r="M273" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N273" s="8"/>
       <c r="O273" s="8"/>
@@ -10950,20 +10909,20 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G299" s="7"/>
       <c r="H299" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I299" s="7"/>
       <c r="J299" s="7"/>
@@ -10977,29 +10936,29 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
       <c r="D300" s="8"/>
       <c r="E300" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G300" s="8"/>
       <c r="H300" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I300" s="8"/>
       <c r="J300" s="8"/>
       <c r="K300" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L300" s="8"/>
       <c r="M300" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N300" s="8"/>
       <c r="O300" s="8"/>
@@ -11011,20 +10970,20 @@
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
       <c r="F301" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G301" s="8"/>
       <c r="H301" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I301" s="8"/>
       <c r="J301" s="8"/>
       <c r="K301" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L301" s="8"/>
       <c r="M301" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N301" s="8"/>
       <c r="O301" s="8"/>
@@ -11036,20 +10995,20 @@
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G302" s="8"/>
       <c r="H302" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I302" s="8"/>
       <c r="J302" s="8"/>
       <c r="K302" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L302" s="8"/>
       <c r="M302" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N302" s="8"/>
       <c r="O302" s="8"/>
@@ -11066,11 +11025,11 @@
       <c r="I303" s="9"/>
       <c r="J303" s="9"/>
       <c r="K303" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L303" s="8"/>
       <c r="M303" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N303" s="8"/>
       <c r="O303" s="8"/>
@@ -11087,11 +11046,11 @@
       <c r="I304" s="9"/>
       <c r="J304" s="9"/>
       <c r="K304" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L304" s="8"/>
       <c r="M304" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N304" s="8"/>
       <c r="O304" s="8"/>
@@ -11108,11 +11067,11 @@
       <c r="I305" s="9"/>
       <c r="J305" s="9"/>
       <c r="K305" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L305" s="8"/>
       <c r="M305" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N305" s="8"/>
       <c r="O305" s="8"/>
@@ -11451,7 +11410,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -11469,33 +11428,33 @@
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" ht="54.75" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -11504,71 +11463,71 @@
     </row>
     <row r="3" ht="81.75" spans="1:7">
       <c r="A3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" ht="81.75" spans="1:7">
       <c r="A4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="5" ht="81.75" spans="1:7">
       <c r="A5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" ht="81.75" spans="1:7">
@@ -11576,22 +11535,22 @@
         <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
